--- a/Report/Sections/Glossary.xlsx
+++ b/Report/Sections/Glossary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laith\University\TM471-A\git repo\Report\Sections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CA858F-C791-4751-9CCE-AD043612BD2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91252161-2619-4F18-AB1A-BB1D4F15E197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>Owner</t>
   </si>
@@ -1226,67 +1226,85 @@
     </r>
   </si>
   <si>
-    <t>isArchived</t>
-  </si>
-  <si>
-    <t>rentID</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">An indicator if a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ToolRequset </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is active and shows for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Owner </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">or archived and doesn't show for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Owner.</t>
+    <t>emailAddress</t>
+  </si>
+  <si>
+    <t>IDNumber</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The email address of a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The ID number of a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User.</t>
+    </r>
+  </si>
+  <si>
+    <t>creditCard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Credit card details of a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User.</t>
+    </r>
+  </si>
+  <si>
+    <t>requestID</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attribute of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rent</t>
     </r>
   </si>
   <si>
@@ -1302,18 +1320,424 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Tool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> linked to a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A unique identifier for a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ToolRequest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>linked to a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Rent.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>creatorUID</t>
+  </si>
+  <si>
+    <t>targetUID</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attribute of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UserReviews</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> a unique identifier for a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">User </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">that is creating a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UserReview</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> a unique identifier for a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">User </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">that a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UserReview </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is rating/targeting.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A description of a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UserReview</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A value that rates a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">User </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">out of 5, it's the average of all </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User.reviews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the end date and time of a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Rent.</t>
     </r>
-  </si>
-  <si>
-    <t>currentRentID</t>
-  </si>
-  <si>
-    <t>rents</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A unique identifier for the currrent and ongoing </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (i.e., the date and time of returning the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the start date and time of a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rent.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (i.e., the date and time of delivering the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ban a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User</t>
+    </r>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prevent a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from accessing the system functionalities and operations</t>
+    </r>
+  </si>
+  <si>
+    <t>currentRent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
     </r>
     <r>
       <rPr>
@@ -1334,7 +1758,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> for a </t>
+      <t xml:space="preserve"> object that is created after delivering the </t>
     </r>
     <r>
       <rPr>
@@ -1355,608 +1779,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> to the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Renter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A collection of all </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Rent </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">objects assoicated with a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tool.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (i.e., all previous and current </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>emailAddress</t>
-  </si>
-  <si>
-    <t>IDNumber</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The email address of a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The ID number of a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User.</t>
-    </r>
-  </si>
-  <si>
-    <t>creditCard</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Credit card details of a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User.</t>
-    </r>
-  </si>
-  <si>
-    <t>requestID</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attribute of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rent</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A unique identifier for a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A unique identifier for a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> linked to a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A unique identifier for a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ToolRequest </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>linked to a</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Rent.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>creatorUID</t>
-  </si>
-  <si>
-    <t>targetUID</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attribute of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UserReviews</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> a unique identifier for a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">User </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">that is creating a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UserReview</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> a unique identifier for a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">User </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">that a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">UserReview </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is rating/targeting.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A description of a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UserReview</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A value that rates a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">User </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">out of 5, it's the average of all </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User.reviews</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the end date and time of a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rent.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (i.e., the date and time of returning the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the start date and time of a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rent.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (i.e., the date and time of delivering the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ban a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User</t>
-    </r>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Prevent a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from accessing the system functionalities and operations</t>
     </r>
   </si>
 </sst>
@@ -2305,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D49:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,35 +2297,35 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2640,211 +2484,200 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="2" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2852,43 +2685,10 @@
         <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Report/Sections/Glossary.xlsx
+++ b/Report/Sections/Glossary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laith\University\TM471-A\git repo\Report\Sections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91252161-2619-4F18-AB1A-BB1D4F15E197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3302C4DA-5BF6-492D-BD22-6DA09DDAB711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Defination</t>
-  </si>
-  <si>
     <t>Concept</t>
   </si>
   <si>
@@ -1704,9 +1701,6 @@
     </r>
   </si>
   <si>
-    <t>operation</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Prevent a </t>
     </r>
@@ -1802,6 +1796,12 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Definition</t>
   </si>
 </sst>
 </file>
@@ -2151,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D49:D50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2171,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -2190,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -2201,10 +2201,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2215,37 +2215,37 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -2253,153 +2253,142 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>44</v>
@@ -2407,288 +2396,299 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C48" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
